--- a/categories.xlsx
+++ b/categories.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="categories" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>decoration</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
 </sst>
 </file>
@@ -84,15 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -373,53 +364,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
